--- a/Financial Modeling/Retirement Plan Model.xlsx
+++ b/Financial Modeling/Retirement Plan Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytrine-my.sharepoint.com/personal/kdamarla23_my_trine_edu/Documents/Trine/Terms/Spring Term 1, 2025 - Financial Modelling/W7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{82C2CB14-C093-A943-84BC-18C4564B5911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F86273-1B84-FF4E-B745-AD318641EF1A}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{82C2CB14-C093-A943-84BC-18C4564B5911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{670967C5-0646-2340-9974-8F0D93C73A9B}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="24620" windowHeight="16340" activeTab="1" xr2:uid="{AD44E7BA-018C-3449-8EC2-7521C39A7054}"/>
+    <workbookView xWindow="2300" yWindow="500" windowWidth="25840" windowHeight="16340" activeTab="1" xr2:uid="{AD44E7BA-018C-3449-8EC2-7521C39A7054}"/>
   </bookViews>
   <sheets>
     <sheet name="How to use the model" sheetId="6" r:id="rId1"/>
@@ -454,9 +454,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1183,7 +1184,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1291,13 +1292,6 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="17" borderId="20" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="14" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1314,7 +1308,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="9" fillId="15" borderId="20" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1342,14 +1335,59 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1359,6 +1397,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,15 +1443,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1414,62 +1452,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,15 +1485,31 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="9" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,86 +1861,86 @@
   <sheetData>
     <row r="1" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="3:14" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
     </row>
     <row r="6" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="150"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="131"/>
     </row>
     <row r="8" spans="3:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="122"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="3:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
     </row>
     <row r="10" spans="3:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="3:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
     </row>
     <row r="12" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1969,12 +1975,12 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1983,12 +1989,12 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="3:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -2017,20 +2023,20 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
     </row>
     <row r="20" spans="3:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
     </row>
     <row r="21" spans="3:14" ht="68" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
@@ -2053,20 +2059,20 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="137"/>
     </row>
     <row r="24" spans="3:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
     </row>
     <row r="25" spans="3:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
@@ -2078,11 +2084,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C19:F19"/>
@@ -2092,6 +2093,11 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2101,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F194E5D3-3E23-5547-983B-AC674B1E3448}">
   <dimension ref="B1:R1248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="M37" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2129,107 +2135,107 @@
   <sheetData>
     <row r="1" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="69"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="157"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="69"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="157"/>
       <c r="Q4" s="62"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
       <c r="O5" s="62"/>
-      <c r="P5" s="69"/>
+      <c r="P5" s="157"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70" t="s">
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70" t="s">
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
       <c r="O6" s="62"/>
-      <c r="P6" s="69"/>
+      <c r="P6" s="157"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="14"/>
     </row>
@@ -2260,9 +2266,9 @@
         <f xml:space="preserve"> (I10* 0.04)  + (I11 * 0.085) + (I12 * 0.075)</f>
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="N7" s="69"/>
+      <c r="N7" s="157"/>
       <c r="O7" s="62"/>
-      <c r="P7" s="69"/>
+      <c r="P7" s="157"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="14"/>
     </row>
@@ -2275,7 +2281,7 @@
       <c r="E8" s="67">
         <v>95000</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="58" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2289,7 @@
       <c r="I8" s="54">
         <v>7500</v>
       </c>
-      <c r="J8" s="69"/>
+      <c r="J8" s="157"/>
       <c r="K8" s="51" t="s">
         <v>6</v>
       </c>
@@ -2292,9 +2298,9 @@
         <f>E8*0.1</f>
         <v>9500</v>
       </c>
-      <c r="N8" s="69"/>
+      <c r="N8" s="157"/>
       <c r="O8" s="62"/>
-      <c r="P8" s="86"/>
+      <c r="P8" s="160"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="14"/>
     </row>
@@ -2307,7 +2313,7 @@
       <c r="E9" s="66">
         <v>46</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="51" t="s">
         <v>2</v>
       </c>
@@ -2315,7 +2321,7 @@
       <c r="I9" s="54">
         <v>65</v>
       </c>
-      <c r="J9" s="69"/>
+      <c r="J9" s="157"/>
       <c r="K9" s="51" t="s">
         <v>51</v>
       </c>
@@ -2324,22 +2330,22 @@
         <f>I9-E9</f>
         <v>19</v>
       </c>
-      <c r="N9" s="69"/>
+      <c r="N9" s="157"/>
       <c r="O9" s="62"/>
-      <c r="P9" s="69"/>
+      <c r="P9" s="157"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="14"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="63">
         <v>0.04</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="157"/>
       <c r="G10" s="51" t="s">
         <v>46</v>
       </c>
@@ -2347,18 +2353,18 @@
       <c r="I10" s="60">
         <v>0.2</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="83" t="s">
+      <c r="J10" s="157"/>
+      <c r="K10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84">
+      <c r="L10" s="76"/>
+      <c r="M10" s="77">
         <f>FV(I7,M9,-I19,-E7,1)</f>
         <v>2456394.1308898958</v>
       </c>
-      <c r="N10" s="69"/>
+      <c r="N10" s="157"/>
       <c r="O10" s="62"/>
-      <c r="P10" s="69"/>
+      <c r="P10" s="157"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="14"/>
     </row>
@@ -2368,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="53"/>
-      <c r="E11" s="89">
+      <c r="E11" s="81">
         <v>40000</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="157"/>
       <c r="G11" s="51" t="s">
         <v>47</v>
       </c>
@@ -2379,31 +2385,31 @@
       <c r="I11" s="60">
         <v>0.32</v>
       </c>
-      <c r="J11" s="69"/>
+      <c r="J11" s="157"/>
       <c r="K11" s="51" t="s">
         <v>60</v>
       </c>
       <c r="L11" s="52"/>
-      <c r="M11" s="84">
+      <c r="M11" s="77">
         <f>PMT(M7,M9,0,-M10,1)</f>
         <v>60596.814972027103</v>
       </c>
-      <c r="N11" s="86"/>
+      <c r="N11" s="160"/>
       <c r="O11" s="62"/>
-      <c r="P11" s="69"/>
+      <c r="P11" s="157"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="90">
+      <c r="D12" s="86"/>
+      <c r="E12" s="82">
         <v>24000</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="51" t="s">
         <v>48</v>
       </c>
@@ -2411,26 +2417,26 @@
       <c r="I12" s="60">
         <v>0.48</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="69"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="157"/>
       <c r="M12" s="62"/>
-      <c r="N12" s="69"/>
+      <c r="N12" s="157"/>
       <c r="O12" s="62"/>
-      <c r="P12" s="69"/>
+      <c r="P12" s="157"/>
       <c r="Q12" s="62"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="91">
+      <c r="D13" s="76"/>
+      <c r="E13" s="83">
         <v>580000</v>
       </c>
-      <c r="F13" s="69"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="51" t="s">
         <v>45</v>
       </c>
@@ -2438,27 +2444,27 @@
       <c r="I13" s="41">
         <v>0.04</v>
       </c>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
       <c r="M13" s="62"/>
-      <c r="N13" s="69"/>
+      <c r="N13" s="157"/>
       <c r="O13" s="62"/>
-      <c r="P13" s="69"/>
+      <c r="P13" s="157"/>
       <c r="Q13" s="62"/>
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="67">
         <f>(2*E8) / 9</f>
         <v>21111.111111111109</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="51" t="s">
         <v>50</v>
       </c>
@@ -2466,7 +2472,7 @@
       <c r="I14" s="49">
         <v>10000</v>
       </c>
-      <c r="J14" s="69"/>
+      <c r="J14" s="157"/>
       <c r="K14" s="51" t="s">
         <v>26</v>
       </c>
@@ -2475,9 +2481,9 @@
         <f>E14+I14</f>
         <v>31111.111111111109</v>
       </c>
-      <c r="N14" s="69"/>
+      <c r="N14" s="157"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="69"/>
+      <c r="P14" s="157"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="14"/>
     </row>
@@ -2487,43 +2493,43 @@
         <v>25</v>
       </c>
       <c r="D15" s="53"/>
-      <c r="E15" s="91">
+      <c r="E15" s="83">
         <v>50000</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79">
+      <c r="H15" s="71"/>
+      <c r="I15" s="72">
         <v>0.02</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
       <c r="M15" s="57"/>
-      <c r="N15" s="69"/>
+      <c r="N15" s="157"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="69"/>
+      <c r="P15" s="157"/>
       <c r="Q15" s="62"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
       <c r="O16" s="62"/>
-      <c r="P16" s="69"/>
+      <c r="P16" s="157"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="14"/>
     </row>
@@ -2533,13 +2539,13 @@
       <c r="D17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="154" t="s">
+      <c r="E17" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
       <c r="J17" s="19" t="s">
         <v>41</v>
       </c>
@@ -2555,14 +2561,14 @@
       <c r="N17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="96" t="s">
+      <c r="O17" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="96" t="s">
+      <c r="P17" s="74"/>
+      <c r="Q17" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="81" t="s">
+      <c r="R17" s="74" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2604,16 +2610,16 @@
       <c r="N18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="97" t="s">
+      <c r="O18" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="97" t="s">
+      <c r="Q18" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="80" t="s">
+      <c r="R18" s="73" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2621,46 +2627,47 @@
       <c r="B19" s="31">
         <v>2025</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="163">
         <f>E9</f>
         <v>46</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="163">
         <f>E8</f>
         <v>95000</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="163">
         <f>$I$8</f>
         <v>7500</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="163"/>
       <c r="G19" s="32">
         <f>D19*0.1</f>
         <v>9500</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="163">
         <f>E19+G19</f>
         <v>17000</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="163">
         <f>H19 +$M$14</f>
         <v>48111.111111111109</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22">
+      <c r="J19" s="163"/>
+      <c r="K19" s="163">
         <f>E7</f>
         <v>137000</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22">
+      <c r="L19" s="163"/>
+      <c r="M19" s="163">
         <f>E7</f>
         <v>137000</v>
       </c>
-      <c r="O19" s="98"/>
-      <c r="P19" s="13">
+      <c r="N19" s="164"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="164">
         <v>1</v>
       </c>
-      <c r="Q19" s="99">
+      <c r="Q19" s="91">
         <f>M19/P19</f>
         <v>137000</v>
       </c>
@@ -2671,53 +2678,54 @@
         <f>B19+1</f>
         <v>2026</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="163">
         <f>C19+1</f>
         <v>47</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="163">
         <f>D19*(1+$I$13)</f>
         <v>98800</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="163">
         <f t="shared" ref="E20:E38" si="0">$I$8</f>
         <v>7500</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="163"/>
       <c r="G20" s="32">
         <f>D20*0.1</f>
         <v>9880</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="163">
         <f t="shared" ref="H20:H38" si="1">E20+G20</f>
         <v>17380</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="163">
         <f t="shared" ref="I20:I38" si="2">H20 +$M$14</f>
         <v>48491.111111111109</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="163">
         <f>K19*$I$7</f>
         <v>9754.4</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="163">
         <f>H20+J20 +K19</f>
         <v>164134.39999999999</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="163">
         <f>(1+M19)*$I$7</f>
         <v>9754.4712</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="163">
         <f>M19+L20 + I20</f>
         <v>195245.58231111109</v>
       </c>
-      <c r="O20" s="98"/>
-      <c r="P20" s="13">
+      <c r="N20" s="164"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="164">
         <f>P19*(1+$I$15)</f>
         <v>1.02</v>
       </c>
-      <c r="Q20" s="99">
+      <c r="Q20" s="91">
         <f>M20/P20</f>
         <v>191417.23755991284</v>
       </c>
@@ -2728,54 +2736,55 @@
         <f t="shared" ref="B21:B46" si="3">B20+1</f>
         <v>2027</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="163">
         <f>C20+1</f>
         <v>48</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="163">
         <f t="shared" ref="D21:D38" si="4">D20*(1+$I$13)</f>
         <v>102752</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="163"/>
       <c r="G21" s="32">
         <f t="shared" ref="G21:G38" si="5">D21*0.1</f>
         <v>10275.200000000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="163">
         <f t="shared" si="1"/>
         <v>17775.2</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="163">
         <f t="shared" si="2"/>
         <v>48886.311111111107</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="163">
         <f>K20*$I$7</f>
         <v>11686.369279999999</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="163">
         <f>H21+J21 +K20</f>
         <v>193595.96927999999</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="163">
         <f>M20*$I$7</f>
         <v>13901.48546055111</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="163">
         <f>M20+L21 + I21</f>
         <v>258033.37888277331</v>
       </c>
-      <c r="O21" s="98"/>
-      <c r="P21" s="13">
-        <f t="shared" ref="P21:P38" si="6">P20*(1+$I$15)</f>
+      <c r="N21" s="164"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="164">
+        <f t="shared" ref="P21:P63" si="6">P20*(1+$I$15)</f>
         <v>1.0404</v>
       </c>
-      <c r="Q21" s="99">
-        <f t="shared" ref="Q21:Q38" si="7">M21/P21</f>
+      <c r="Q21" s="91">
+        <f>M21/P21</f>
         <v>248013.62829947454</v>
       </c>
       <c r="R21" s="30"/>
@@ -2785,54 +2794,55 @@
         <f t="shared" si="3"/>
         <v>2028</v>
       </c>
-      <c r="C22" s="22">
-        <f t="shared" ref="C22:C46" si="8">C21+1</f>
+      <c r="C22" s="163">
+        <f t="shared" ref="C22:C46" si="7">C21+1</f>
         <v>49</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="163">
         <f t="shared" si="4"/>
         <v>106862.08</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="163"/>
       <c r="G22" s="32">
         <f t="shared" si="5"/>
         <v>10686.208000000001</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="163">
         <f t="shared" si="1"/>
         <v>18186.207999999999</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="163">
         <f t="shared" si="2"/>
         <v>49297.319111111108</v>
       </c>
-      <c r="J22" s="22">
-        <f t="shared" ref="J22:J39" si="9">K21*$I$7</f>
+      <c r="J22" s="163">
+        <f t="shared" ref="J22:J39" si="8">K21*$I$7</f>
         <v>13784.033012735999</v>
       </c>
-      <c r="K22" s="22">
-        <f t="shared" ref="K22:K24" si="10">H22+J22 +K21</f>
+      <c r="K22" s="163">
+        <f t="shared" ref="K22:K24" si="9">H22+J22 +K21</f>
         <v>225566.21029273598</v>
       </c>
-      <c r="L22" s="22">
-        <f t="shared" ref="L22:L63" si="11">M21*$I$7</f>
+      <c r="L22" s="163">
+        <f t="shared" ref="L22:L63" si="10">M21*$I$7</f>
         <v>18371.97657645346</v>
       </c>
-      <c r="M22" s="22">
-        <f t="shared" ref="M22:M38" si="12">M21+L22 + I22</f>
+      <c r="M22" s="163">
+        <f t="shared" ref="M22:M38" si="11">M21+L22 + I22</f>
         <v>325702.67457033787</v>
       </c>
-      <c r="O22" s="98"/>
-      <c r="P22" s="13">
+      <c r="N22" s="164"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="164">
         <f t="shared" si="6"/>
         <v>1.0612079999999999</v>
       </c>
-      <c r="Q22" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q22" s="91">
+        <f t="shared" ref="Q21:Q38" si="12">M22/P22</f>
         <v>306916.90466933709</v>
       </c>
       <c r="R22" s="30"/>
@@ -2842,54 +2852,55 @@
         <f t="shared" si="3"/>
         <v>2029</v>
       </c>
-      <c r="C23" s="22">
-        <f t="shared" si="8"/>
+      <c r="C23" s="163">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="163">
         <f t="shared" si="4"/>
         <v>111136.5632</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="32">
         <f t="shared" si="5"/>
         <v>11113.656320000002</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="163">
         <f t="shared" si="1"/>
         <v>18613.656320000002</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="163">
         <f t="shared" si="2"/>
         <v>49724.767431111111</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="163">
+        <f t="shared" si="8"/>
+        <v>16060.314172842802</v>
+      </c>
+      <c r="K23" s="163">
         <f t="shared" si="9"/>
-        <v>16060.314172842802</v>
-      </c>
-      <c r="K23" s="22">
+        <v>260240.18078557879</v>
+      </c>
+      <c r="L23" s="163">
         <f t="shared" si="10"/>
-        <v>260240.18078557879</v>
-      </c>
-      <c r="L23" s="22">
+        <v>23190.030429408056</v>
+      </c>
+      <c r="M23" s="163">
         <f t="shared" si="11"/>
-        <v>23190.030429408056</v>
-      </c>
-      <c r="M23" s="22">
-        <f t="shared" si="12"/>
         <v>398617.47243085707</v>
       </c>
-      <c r="O23" s="98"/>
-      <c r="P23" s="13">
+      <c r="N23" s="164"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="164">
         <f t="shared" si="6"/>
         <v>1.08243216</v>
       </c>
-      <c r="Q23" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q23" s="91">
+        <f t="shared" si="12"/>
         <v>368260.92863949743</v>
       </c>
       <c r="R23" s="30"/>
@@ -2899,54 +2910,55 @@
         <f t="shared" si="3"/>
         <v>2030</v>
       </c>
-      <c r="C24" s="22">
-        <f t="shared" si="8"/>
+      <c r="C24" s="163">
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="163">
         <f t="shared" si="4"/>
         <v>115582.02572800001</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="163"/>
       <c r="G24" s="32">
         <f t="shared" si="5"/>
         <v>11558.202572800001</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="163">
         <f t="shared" si="1"/>
         <v>19058.202572800001</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="163">
         <f t="shared" si="2"/>
         <v>50169.31368391111</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="163">
+        <f t="shared" si="8"/>
+        <v>18529.100871933209</v>
+      </c>
+      <c r="K24" s="163">
         <f t="shared" si="9"/>
-        <v>18529.100871933209</v>
-      </c>
-      <c r="K24" s="22">
+        <v>297827.48423031199</v>
+      </c>
+      <c r="L24" s="163">
         <f t="shared" si="10"/>
-        <v>297827.48423031199</v>
-      </c>
-      <c r="L24" s="22">
+        <v>28381.564037077023</v>
+      </c>
+      <c r="M24" s="163">
         <f t="shared" si="11"/>
-        <v>28381.564037077023</v>
-      </c>
-      <c r="M24" s="22">
-        <f t="shared" si="12"/>
         <v>477168.3501518452</v>
       </c>
-      <c r="O24" s="98"/>
-      <c r="P24" s="13">
+      <c r="N24" s="164"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="164">
         <f t="shared" si="6"/>
         <v>1.1040808032</v>
       </c>
-      <c r="Q24" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q24" s="91">
+        <f t="shared" si="12"/>
         <v>432186.07620823564</v>
       </c>
       <c r="R24" s="30"/>
@@ -2956,54 +2968,55 @@
         <f t="shared" si="3"/>
         <v>2031</v>
       </c>
-      <c r="C25" s="22">
-        <f t="shared" si="8"/>
+      <c r="C25" s="163">
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="163">
         <f t="shared" si="4"/>
         <v>120205.30675712001</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="163"/>
       <c r="G25" s="32">
         <f t="shared" si="5"/>
         <v>12020.530675712002</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="163">
         <f t="shared" si="1"/>
         <v>19520.530675712002</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="163">
         <f t="shared" si="2"/>
         <v>50631.641786823107</v>
       </c>
-      <c r="J25" s="22">
-        <f t="shared" si="9"/>
+      <c r="J25" s="163">
+        <f t="shared" si="8"/>
         <v>21205.316877198213</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="163">
         <f t="shared" ref="K25:K38" si="13">K24+J25+H25</f>
         <v>338553.33178322221</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="163">
+        <f t="shared" si="10"/>
+        <v>33974.386530811375</v>
+      </c>
+      <c r="M25" s="163">
         <f t="shared" si="11"/>
-        <v>33974.386530811375</v>
-      </c>
-      <c r="M25" s="22">
-        <f t="shared" si="12"/>
         <v>561774.37846947974</v>
       </c>
-      <c r="O25" s="98"/>
-      <c r="P25" s="13">
+      <c r="N25" s="164"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="164">
         <f t="shared" si="6"/>
         <v>1.1261624192640001</v>
       </c>
-      <c r="Q25" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q25" s="91">
+        <f t="shared" si="12"/>
         <v>498839.57132633287</v>
       </c>
       <c r="R25" s="30"/>
@@ -3013,54 +3026,55 @@
         <f t="shared" si="3"/>
         <v>2032</v>
       </c>
-      <c r="C26" s="22">
-        <f t="shared" si="8"/>
+      <c r="C26" s="163">
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="163">
         <f t="shared" si="4"/>
         <v>125013.51902740481</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="163"/>
       <c r="G26" s="32">
         <f t="shared" si="5"/>
         <v>12501.351902740482</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="163">
         <f t="shared" si="1"/>
         <v>20001.351902740484</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="163">
         <f t="shared" si="2"/>
         <v>51112.463013851593</v>
       </c>
-      <c r="J26" s="22">
-        <f t="shared" si="9"/>
+      <c r="J26" s="163">
+        <f t="shared" si="8"/>
         <v>24104.997222965419</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="163">
         <f t="shared" si="13"/>
         <v>382659.6809089281</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="163">
+        <f t="shared" si="10"/>
+        <v>39998.335747026955</v>
+      </c>
+      <c r="M26" s="163">
         <f t="shared" si="11"/>
-        <v>39998.335747026955</v>
-      </c>
-      <c r="M26" s="22">
-        <f t="shared" si="12"/>
         <v>652885.17723035824</v>
       </c>
-      <c r="O26" s="98"/>
-      <c r="P26" s="13">
+      <c r="N26" s="164"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="164">
         <f t="shared" si="6"/>
         <v>1.14868566764928</v>
       </c>
-      <c r="Q26" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q26" s="91">
+        <f t="shared" si="12"/>
         <v>568375.83650403738</v>
       </c>
       <c r="R26" s="30"/>
@@ -3070,54 +3084,55 @@
         <f t="shared" si="3"/>
         <v>2033</v>
       </c>
-      <c r="C27" s="22">
-        <f t="shared" si="8"/>
+      <c r="C27" s="163">
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="163">
         <f t="shared" si="4"/>
         <v>130014.05978850101</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="163"/>
       <c r="G27" s="32">
         <f t="shared" si="5"/>
         <v>13001.405978850102</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="163">
         <f t="shared" si="1"/>
         <v>20501.405978850104</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="163">
         <f t="shared" si="2"/>
         <v>51612.517089961213</v>
       </c>
-      <c r="J27" s="22">
-        <f t="shared" si="9"/>
+      <c r="J27" s="163">
+        <f t="shared" si="8"/>
         <v>27245.36928071568</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="163">
         <f t="shared" si="13"/>
         <v>430406.4561684939</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="163">
+        <f t="shared" si="10"/>
+        <v>46485.424618801509</v>
+      </c>
+      <c r="M27" s="163">
         <f t="shared" si="11"/>
-        <v>46485.424618801509</v>
-      </c>
-      <c r="M27" s="22">
-        <f t="shared" si="12"/>
         <v>750983.1189391209</v>
       </c>
-      <c r="O27" s="98"/>
-      <c r="P27" s="13">
+      <c r="N27" s="164"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="164">
         <f t="shared" si="6"/>
         <v>1.1716593810022657</v>
       </c>
-      <c r="Q27" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q27" s="91">
+        <f t="shared" si="12"/>
         <v>640956.86094085791</v>
       </c>
       <c r="R27" s="30"/>
@@ -3127,54 +3142,55 @@
         <f t="shared" si="3"/>
         <v>2034</v>
       </c>
-      <c r="C28" s="22">
-        <f t="shared" si="8"/>
+      <c r="C28" s="163">
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="163">
         <f t="shared" si="4"/>
         <v>135214.62218004104</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="163"/>
       <c r="G28" s="32">
         <f t="shared" si="5"/>
         <v>13521.462218004104</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="163">
         <f t="shared" si="1"/>
         <v>21021.462218004104</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="163">
         <f t="shared" si="2"/>
         <v>52132.573329115214</v>
       </c>
-      <c r="J28" s="22">
-        <f t="shared" si="9"/>
+      <c r="J28" s="163">
+        <f t="shared" si="8"/>
         <v>30644.939679196767</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="163">
         <f t="shared" si="13"/>
         <v>482072.85806569475</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="163">
+        <f t="shared" si="10"/>
+        <v>53469.998068465407</v>
+      </c>
+      <c r="M28" s="163">
         <f t="shared" si="11"/>
-        <v>53469.998068465407</v>
-      </c>
-      <c r="M28" s="22">
-        <f t="shared" si="12"/>
         <v>856585.69033670146</v>
       </c>
-      <c r="O28" s="98"/>
-      <c r="P28" s="13">
+      <c r="N28" s="164"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="164">
         <f t="shared" si="6"/>
         <v>1.1950925686223111</v>
       </c>
-      <c r="Q28" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q28" s="91">
+        <f t="shared" si="12"/>
         <v>716752.58706040122</v>
       </c>
       <c r="R28" s="30"/>
@@ -3184,54 +3200,55 @@
         <f t="shared" si="3"/>
         <v>2035</v>
       </c>
-      <c r="C29" s="22">
-        <f t="shared" si="8"/>
+      <c r="C29" s="163">
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="163">
         <f t="shared" si="4"/>
         <v>140623.20706724268</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="32">
         <f t="shared" si="5"/>
         <v>14062.320706724269</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="163">
         <f t="shared" si="1"/>
         <v>21562.320706724269</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="163">
         <f t="shared" si="2"/>
         <v>52673.431817835379</v>
       </c>
-      <c r="J29" s="22">
-        <f t="shared" si="9"/>
+      <c r="J29" s="163">
+        <f t="shared" si="8"/>
         <v>34323.587494277468</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="163">
         <f t="shared" si="13"/>
         <v>537958.7662666965</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="163">
+        <f t="shared" si="10"/>
+        <v>60988.901151973143</v>
+      </c>
+      <c r="M29" s="163">
         <f t="shared" si="11"/>
-        <v>60988.901151973143</v>
-      </c>
-      <c r="M29" s="22">
-        <f t="shared" si="12"/>
         <v>970248.02330651006</v>
       </c>
-      <c r="O29" s="98"/>
-      <c r="P29" s="13">
+      <c r="N29" s="164"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="164">
         <f t="shared" si="6"/>
         <v>1.2189944199947573</v>
       </c>
-      <c r="Q29" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q29" s="91">
+        <f t="shared" si="12"/>
         <v>795941.31637672544</v>
       </c>
       <c r="R29" s="30"/>
@@ -3241,54 +3258,55 @@
         <f t="shared" si="3"/>
         <v>2036</v>
       </c>
-      <c r="C30" s="22">
-        <f t="shared" si="8"/>
+      <c r="C30" s="163">
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="163">
         <f t="shared" si="4"/>
         <v>146248.13534993239</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="163"/>
       <c r="G30" s="32">
         <f t="shared" si="5"/>
         <v>14624.81353499324</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="163">
         <f t="shared" si="1"/>
         <v>22124.813534993242</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="163">
         <f t="shared" si="2"/>
         <v>53235.924646104351</v>
       </c>
-      <c r="J30" s="22">
-        <f t="shared" si="9"/>
+      <c r="J30" s="163">
+        <f t="shared" si="8"/>
         <v>38302.664158188789</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="163">
         <f t="shared" si="13"/>
         <v>598386.24395987845</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="163">
+        <f t="shared" si="10"/>
+        <v>69081.659259423512</v>
+      </c>
+      <c r="M30" s="163">
         <f t="shared" si="11"/>
-        <v>69081.659259423512</v>
-      </c>
-      <c r="M30" s="22">
-        <f t="shared" si="12"/>
         <v>1092565.607212038</v>
       </c>
-      <c r="O30" s="98"/>
-      <c r="P30" s="13">
+      <c r="N30" s="164"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="164">
         <f t="shared" si="6"/>
         <v>1.2433743083946525</v>
       </c>
-      <c r="Q30" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q30" s="91">
+        <f t="shared" si="12"/>
         <v>878710.13566515874</v>
       </c>
       <c r="R30" s="30"/>
@@ -3298,54 +3316,55 @@
         <f t="shared" si="3"/>
         <v>2037</v>
       </c>
-      <c r="C31" s="22">
-        <f t="shared" si="8"/>
+      <c r="C31" s="163">
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="163">
         <f t="shared" si="4"/>
         <v>152098.06076392968</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="163"/>
       <c r="G31" s="32">
         <f t="shared" si="5"/>
         <v>15209.806076392968</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="163">
         <f t="shared" si="1"/>
         <v>22709.806076392968</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="163">
         <f t="shared" si="2"/>
         <v>53820.917187504077</v>
       </c>
-      <c r="J31" s="22">
-        <f t="shared" si="9"/>
+      <c r="J31" s="163">
+        <f t="shared" si="8"/>
         <v>42605.100569943344</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="163">
         <f t="shared" si="13"/>
         <v>663701.15060621477</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="163">
+        <f t="shared" si="10"/>
+        <v>77790.671233497109</v>
+      </c>
+      <c r="M31" s="163">
         <f t="shared" si="11"/>
-        <v>77790.671233497109</v>
-      </c>
-      <c r="M31" s="22">
-        <f t="shared" si="12"/>
         <v>1224177.1956330391</v>
       </c>
-      <c r="O31" s="98"/>
-      <c r="P31" s="13">
+      <c r="N31" s="164"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="164">
         <f t="shared" si="6"/>
         <v>1.2682417945625455</v>
       </c>
-      <c r="Q31" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q31" s="91">
+        <f t="shared" si="12"/>
         <v>965255.36445934151</v>
       </c>
       <c r="R31" s="30"/>
@@ -3355,54 +3374,55 @@
         <f t="shared" si="3"/>
         <v>2038</v>
       </c>
-      <c r="C32" s="22">
-        <f t="shared" si="8"/>
+      <c r="C32" s="163">
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="163">
         <f t="shared" si="4"/>
         <v>158181.98319448688</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="163"/>
       <c r="G32" s="32">
         <f t="shared" si="5"/>
         <v>15818.198319448689</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="163">
         <f t="shared" si="1"/>
         <v>23318.198319448689</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="163">
         <f t="shared" si="2"/>
         <v>54429.309430559799</v>
       </c>
-      <c r="J32" s="22">
-        <f t="shared" si="9"/>
+      <c r="J32" s="163">
+        <f t="shared" si="8"/>
         <v>47255.521923162494</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="163">
         <f t="shared" si="13"/>
         <v>734274.87084882602</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="163">
+        <f t="shared" si="10"/>
+        <v>87161.416329072381</v>
+      </c>
+      <c r="M32" s="163">
         <f t="shared" si="11"/>
-        <v>87161.416329072381</v>
-      </c>
-      <c r="M32" s="22">
-        <f t="shared" si="12"/>
         <v>1365767.9213926713</v>
       </c>
-      <c r="O32" s="98"/>
-      <c r="P32" s="13">
+      <c r="N32" s="164"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="164">
         <f t="shared" si="6"/>
         <v>1.2936066304537963</v>
       </c>
-      <c r="Q32" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q32" s="91">
+        <f t="shared" si="12"/>
         <v>1055783.024947515</v>
       </c>
       <c r="R32" s="30"/>
@@ -3412,54 +3432,55 @@
         <f t="shared" si="3"/>
         <v>2039</v>
       </c>
-      <c r="C33" s="22">
-        <f t="shared" si="8"/>
+      <c r="C33" s="163">
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="163">
         <f t="shared" si="4"/>
         <v>164509.26252226636</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="163"/>
       <c r="G33" s="32">
         <f t="shared" si="5"/>
         <v>16450.926252226636</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="163">
         <f t="shared" si="1"/>
         <v>23950.926252226636</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="163">
         <f t="shared" si="2"/>
         <v>55062.037363337746</v>
       </c>
-      <c r="J33" s="22">
-        <f t="shared" si="9"/>
+      <c r="J33" s="163">
+        <f t="shared" si="8"/>
         <v>52280.37080443641</v>
       </c>
-      <c r="K33" s="73">
+      <c r="K33" s="165">
         <f t="shared" si="13"/>
         <v>810506.16790548898</v>
       </c>
-      <c r="L33" s="22">
-        <f t="shared" si="11"/>
+      <c r="L33" s="163">
+        <f t="shared" si="10"/>
         <v>97242.676003158194</v>
       </c>
-      <c r="M33" s="73">
-        <f t="shared" si="12"/>
+      <c r="M33" s="165">
+        <f>M32+L33 + I33</f>
         <v>1518072.6347591672</v>
       </c>
-      <c r="O33" s="98"/>
-      <c r="P33" s="13">
+      <c r="N33" s="164"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="164">
         <f t="shared" si="6"/>
         <v>1.3194787630628724</v>
       </c>
-      <c r="Q33" s="101">
-        <f t="shared" si="7"/>
+      <c r="Q33" s="93">
+        <f t="shared" si="12"/>
         <v>1150509.3353949131</v>
       </c>
       <c r="R33" s="30"/>
@@ -3469,54 +3490,55 @@
         <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-      <c r="C34" s="22">
-        <f t="shared" si="8"/>
+      <c r="C34" s="163">
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="163">
         <f t="shared" si="4"/>
         <v>171089.63302315702</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="163"/>
       <c r="G34" s="32">
         <f t="shared" si="5"/>
         <v>17108.963302315704</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="163">
         <f t="shared" si="1"/>
         <v>24608.963302315704</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="163">
         <f t="shared" si="2"/>
         <v>55720.074413426817</v>
       </c>
-      <c r="J34" s="22">
-        <f t="shared" si="9"/>
+      <c r="J34" s="163">
+        <f t="shared" si="8"/>
         <v>57708.039154870814</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="163">
         <f t="shared" si="13"/>
         <v>892823.17036267545</v>
       </c>
-      <c r="L34" s="22">
-        <f t="shared" si="11"/>
+      <c r="L34" s="163">
+        <f>M33*$I$7</f>
         <v>108086.7715948527</v>
       </c>
-      <c r="M34" s="22">
-        <f t="shared" si="12"/>
+      <c r="M34" s="163">
+        <f>M33+L34 + I34</f>
         <v>1681879.4807674468</v>
       </c>
-      <c r="O34" s="98"/>
-      <c r="P34" s="13">
+      <c r="N34" s="164"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="164">
         <f t="shared" si="6"/>
         <v>1.3458683383241299</v>
       </c>
-      <c r="Q34" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q34" s="91">
+        <f t="shared" si="12"/>
         <v>1249661.2282756548</v>
       </c>
       <c r="R34" s="30"/>
@@ -3526,54 +3548,55 @@
         <f t="shared" si="3"/>
         <v>2041</v>
       </c>
-      <c r="C35" s="22">
-        <f t="shared" si="8"/>
+      <c r="C35" s="163">
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="163">
         <f t="shared" si="4"/>
         <v>177933.21834408332</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="163"/>
       <c r="G35" s="32">
         <f t="shared" si="5"/>
         <v>17793.321834408333</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="163">
         <f t="shared" si="1"/>
         <v>25293.321834408333</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="163">
         <f t="shared" si="2"/>
         <v>56404.432945519438</v>
       </c>
-      <c r="J35" s="22">
-        <f t="shared" si="9"/>
+      <c r="J35" s="163">
+        <f t="shared" si="8"/>
         <v>63569.009729822494</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="163">
         <f t="shared" si="13"/>
         <v>981685.50192690629</v>
       </c>
-      <c r="L35" s="22">
-        <f t="shared" si="11"/>
+      <c r="L35" s="163">
+        <f>M34*$I$7</f>
         <v>119749.81903064222</v>
       </c>
-      <c r="M35" s="22">
-        <f t="shared" si="12"/>
+      <c r="M35" s="163">
+        <f>M34+L35 + I35</f>
         <v>1858033.7327436085</v>
       </c>
-      <c r="O35" s="98"/>
-      <c r="P35" s="13">
+      <c r="N35" s="164"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="164">
         <f t="shared" si="6"/>
         <v>1.3727857050906125</v>
       </c>
-      <c r="Q35" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q35" s="91">
+        <f t="shared" si="12"/>
         <v>1353476.8943569139</v>
       </c>
       <c r="R35" s="30"/>
@@ -3583,54 +3606,55 @@
         <f t="shared" si="3"/>
         <v>2042</v>
       </c>
-      <c r="C36" s="22">
-        <f t="shared" si="8"/>
+      <c r="C36" s="163">
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="163">
         <f t="shared" si="4"/>
         <v>185050.54707784666</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="163"/>
       <c r="G36" s="32">
         <f t="shared" si="5"/>
         <v>18505.054707784668</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="163">
         <f t="shared" si="1"/>
         <v>26005.054707784668</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="163">
         <f t="shared" si="2"/>
         <v>57116.165818895781</v>
       </c>
-      <c r="J36" s="22">
-        <f t="shared" si="9"/>
+      <c r="J36" s="163">
+        <f t="shared" si="8"/>
         <v>69896.00773719573</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="163">
         <f t="shared" si="13"/>
         <v>1077586.5643718867</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="163">
+        <f t="shared" si="10"/>
+        <v>132292.00177134492</v>
+      </c>
+      <c r="M36" s="163">
         <f t="shared" si="11"/>
-        <v>132292.00177134492</v>
-      </c>
-      <c r="M36" s="22">
-        <f t="shared" si="12"/>
         <v>2047441.9003338492</v>
       </c>
-      <c r="O36" s="98"/>
-      <c r="P36" s="13">
+      <c r="N36" s="164"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="164">
         <f t="shared" si="6"/>
         <v>1.4002414191924248</v>
       </c>
-      <c r="Q36" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q36" s="91">
+        <f t="shared" si="12"/>
         <v>1462206.3540404988</v>
       </c>
       <c r="R36" s="30"/>
@@ -3640,55 +3664,55 @@
         <f t="shared" si="3"/>
         <v>2043</v>
       </c>
-      <c r="C37" s="22">
-        <f t="shared" si="8"/>
+      <c r="C37" s="163">
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="163">
         <f t="shared" si="4"/>
         <v>192452.56896096052</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="163"/>
       <c r="G37" s="32">
         <f t="shared" si="5"/>
         <v>19245.256896096053</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="163">
         <f t="shared" si="1"/>
         <v>26745.256896096053</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="163">
         <f t="shared" si="2"/>
         <v>57856.368007207158</v>
       </c>
-      <c r="J37" s="22">
-        <f t="shared" si="9"/>
+      <c r="J37" s="163">
+        <f>K36*$I$7</f>
         <v>76724.163383278326</v>
       </c>
-      <c r="K37" s="22">
-        <f t="shared" si="13"/>
+      <c r="K37" s="163">
+        <f>K36+J37+H37</f>
         <v>1181055.984651261</v>
       </c>
-      <c r="L37" s="22">
-        <f t="shared" si="11"/>
+      <c r="L37" s="163">
+        <f t="shared" si="10"/>
         <v>145777.86330377008</v>
       </c>
-      <c r="M37" s="22">
-        <f t="shared" si="12"/>
+      <c r="M37" s="163">
+        <f>M36+L37 + I37</f>
         <v>2251076.1316448264</v>
       </c>
-      <c r="N37" s="74"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="13">
+      <c r="N37" s="166"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="164">
         <f t="shared" si="6"/>
         <v>1.4282462475762734</v>
       </c>
-      <c r="Q37" s="99">
-        <f t="shared" si="7"/>
+      <c r="Q37" s="91">
+        <f t="shared" si="12"/>
         <v>1576112.057332474</v>
       </c>
       <c r="R37" s="30"/>
@@ -3698,54 +3722,55 @@
         <f t="shared" si="3"/>
         <v>2044</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="163">
         <f>C37+1</f>
         <v>65</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="163">
         <f t="shared" si="4"/>
         <v>200150.67171939893</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="163">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="163"/>
       <c r="G38" s="32">
         <f t="shared" si="5"/>
         <v>20015.067171939896</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="163">
         <f t="shared" si="1"/>
         <v>27515.067171939896</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="163">
         <f t="shared" si="2"/>
         <v>58626.178283051006</v>
       </c>
-      <c r="J38" s="22">
-        <f t="shared" si="9"/>
+      <c r="J38" s="163">
+        <f>K37*$I$7</f>
         <v>84091.186107169779</v>
       </c>
-      <c r="K38" s="73">
-        <f t="shared" si="13"/>
+      <c r="K38" s="165">
+        <f>K37+J38+H38</f>
         <v>1292662.2379303707</v>
       </c>
-      <c r="L38" s="22">
-        <f t="shared" si="11"/>
+      <c r="L38" s="163">
+        <f>M37*$I$7</f>
         <v>160276.62057311164</v>
       </c>
-      <c r="M38" s="73">
-        <f t="shared" si="12"/>
+      <c r="M38" s="165">
+        <f>M37+L38 + I38</f>
         <v>2469978.9305009893</v>
       </c>
-      <c r="O38" s="98"/>
-      <c r="P38" s="13">
+      <c r="N38" s="164"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="164">
         <f t="shared" si="6"/>
         <v>1.4568111725277988</v>
       </c>
-      <c r="Q38" s="101">
-        <f t="shared" si="7"/>
+      <c r="Q38" s="93">
+        <f>M38/P38</f>
         <v>1695469.5138802261</v>
       </c>
       <c r="R38" s="30"/>
@@ -3755,45 +3780,51 @@
         <f t="shared" si="3"/>
         <v>2045</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="163">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="D39" s="167"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="163">
         <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="22">
-        <f t="shared" si="9"/>
         <v>92037.5513406424</v>
       </c>
-      <c r="K39" s="22">
-        <f>K38-N39</f>
-        <v>1240955.7484131558</v>
-      </c>
-      <c r="L39" s="22">
-        <f t="shared" si="11"/>
+      <c r="K39" s="163">
+        <f>K38+J39-N39</f>
+        <v>1332993.2997537982</v>
+      </c>
+      <c r="L39" s="163">
+        <f>M38*$I$7</f>
         <v>175862.49985167044</v>
       </c>
-      <c r="M39" s="22">
-        <f>M38-O39</f>
-        <v>2371179.7732809498</v>
-      </c>
-      <c r="N39" s="39">
-        <f>$K$38*$E$10</f>
+      <c r="M39" s="163">
+        <f>M38 + L39 - O39</f>
+        <v>2547042.2731326204</v>
+      </c>
+      <c r="N39" s="168">
+        <f>K38*$E$10</f>
         <v>51706.489517214832</v>
       </c>
-      <c r="O39" s="99">
-        <f t="shared" ref="O39:O63" si="14">$M$38*$E$10</f>
+      <c r="O39" s="91">
+        <f>M38*$E$10</f>
         <v>98799.157220039575</v>
       </c>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="99"/>
+      <c r="P39" s="164">
+        <f t="shared" si="6"/>
+        <v>1.4859473959783549</v>
+      </c>
+      <c r="Q39" s="155">
+        <f>M39/P39</f>
+        <v>1714086.4340326365</v>
+      </c>
       <c r="R39" s="36">
-        <f>$Q$38*0.04</f>
-        <v>67818.780555209043</v>
+        <f>(Q38*0.04) / P39</f>
+        <v>45640.095160001831</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
@@ -3801,45 +3832,51 @@
         <f t="shared" si="3"/>
         <v>2046</v>
       </c>
-      <c r="C40" s="22">
-        <f t="shared" si="8"/>
+      <c r="C40" s="163">
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="22">
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="163">
         <f>K39*$I$7</f>
-        <v>88356.049287016693</v>
-      </c>
-      <c r="K40" s="22">
-        <f t="shared" ref="K40:K63" si="15">K39-N40</f>
-        <v>1189249.2588959408</v>
-      </c>
-      <c r="L40" s="22">
-        <f t="shared" si="11"/>
-        <v>168827.99985760363</v>
-      </c>
-      <c r="M40" s="22">
-        <f t="shared" ref="M40:M63" si="16">M39-O40</f>
-        <v>2272380.6160609103</v>
-      </c>
-      <c r="N40" s="39">
-        <f t="shared" ref="N40:N63" si="17">$K$38*$E$10</f>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O40" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="99"/>
+        <v>94909.122942470436</v>
+      </c>
+      <c r="K40" s="163">
+        <f t="shared" ref="K40:K63" si="14">K39+J40-N40</f>
+        <v>1374582.6907061166</v>
+      </c>
+      <c r="L40" s="163">
+        <f>M39*$I$7</f>
+        <v>181349.40984704258</v>
+      </c>
+      <c r="M40" s="163">
+        <f>M39 + L40-O40</f>
+        <v>2626509.9920543581</v>
+      </c>
+      <c r="N40" s="168">
+        <f t="shared" ref="N40:N63" si="15">K39*$E$10</f>
+        <v>53319.731990151929</v>
+      </c>
+      <c r="O40" s="91">
+        <f>M39*$E$10</f>
+        <v>101881.69092530482</v>
+      </c>
+      <c r="P40" s="164">
+        <f t="shared" si="6"/>
+        <v>1.5156663438979221</v>
+      </c>
+      <c r="Q40" s="155">
+        <f>M40/P40</f>
+        <v>1732907.7752690732</v>
+      </c>
       <c r="R40" s="36">
-        <f t="shared" ref="R40:R63" si="18">$Q$38*0.04</f>
-        <v>67818.780555209043</v>
+        <f t="shared" ref="R40:R62" si="16">(Q39*0.04) / P40</f>
+        <v>45236.511081309</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
@@ -3847,45 +3884,51 @@
         <f t="shared" si="3"/>
         <v>2047</v>
       </c>
-      <c r="C41" s="22">
-        <f t="shared" si="8"/>
+      <c r="C41" s="163">
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
       <c r="G41" s="33"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="22">
-        <f t="shared" ref="J41:J63" si="19">K40*$I$7</f>
-        <v>84674.547233390986</v>
-      </c>
-      <c r="K41" s="22">
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="163">
+        <f>K40*$I$7</f>
+        <v>97870.2875782755</v>
+      </c>
+      <c r="K41" s="163">
+        <f>K40+J41-N41</f>
+        <v>1417469.6706561474</v>
+      </c>
+      <c r="L41" s="163">
+        <f t="shared" si="10"/>
+        <v>187007.5114342703</v>
+      </c>
+      <c r="M41" s="163">
+        <f t="shared" ref="M40:M62" si="17">M40 + L41-O41</f>
+        <v>2708457.1038064538</v>
+      </c>
+      <c r="N41" s="168">
         <f t="shared" si="15"/>
-        <v>1137542.7693787259</v>
-      </c>
-      <c r="L41" s="22">
-        <f t="shared" si="11"/>
-        <v>161793.49986353682</v>
-      </c>
-      <c r="M41" s="22">
-        <f t="shared" si="16"/>
-        <v>2173581.4588408708</v>
-      </c>
-      <c r="N41" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O41" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="99"/>
+        <v>54983.307628244664</v>
+      </c>
+      <c r="O41" s="91">
+        <f t="shared" ref="O40:O63" si="18">M40*$E$10</f>
+        <v>105060.39968217432</v>
+      </c>
+      <c r="P41" s="164">
+        <f t="shared" si="6"/>
+        <v>1.5459796707758806</v>
+      </c>
+      <c r="Q41" s="155">
+        <f>M41/P41</f>
+        <v>1751935.7822132038</v>
+      </c>
       <c r="R41" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <f>(Q40*0.04) / P41</f>
+        <v>44836.495796852985</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
@@ -3893,45 +3936,51 @@
         <f t="shared" si="3"/>
         <v>2048</v>
       </c>
-      <c r="C42" s="22">
-        <f t="shared" si="8"/>
+      <c r="C42" s="163">
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
       <c r="G42" s="33"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="22">
-        <f t="shared" si="19"/>
-        <v>80993.045179765279</v>
-      </c>
-      <c r="K42" s="22">
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="163">
+        <f>K41*$I$7</f>
+        <v>100923.84055071769</v>
+      </c>
+      <c r="K42" s="163">
+        <f t="shared" si="14"/>
+        <v>1461694.7243806191</v>
+      </c>
+      <c r="L42" s="163">
+        <f>M41*$I$7</f>
+        <v>192842.14579101952</v>
+      </c>
+      <c r="M42" s="163">
+        <f t="shared" si="17"/>
+        <v>2792960.9654452149</v>
+      </c>
+      <c r="N42" s="168">
         <f t="shared" si="15"/>
-        <v>1085836.279861511</v>
-      </c>
-      <c r="L42" s="22">
-        <f t="shared" si="11"/>
-        <v>154758.99986946999</v>
-      </c>
-      <c r="M42" s="22">
+        <v>56698.786826245894</v>
+      </c>
+      <c r="O42" s="91">
+        <f t="shared" si="18"/>
+        <v>108338.28415225816</v>
+      </c>
+      <c r="P42" s="164">
+        <f t="shared" si="6"/>
+        <v>1.5768992641913981</v>
+      </c>
+      <c r="Q42" s="155">
+        <f>M42/P42</f>
+        <v>1771172.7241355448</v>
+      </c>
+      <c r="R42" s="36">
         <f t="shared" si="16"/>
-        <v>2074782.3016208312</v>
-      </c>
-      <c r="N42" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O42" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>44440.017748668579</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
@@ -3939,45 +3988,51 @@
         <f t="shared" si="3"/>
         <v>2049</v>
       </c>
-      <c r="C43" s="22">
-        <f t="shared" si="8"/>
+      <c r="C43" s="163">
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
       <c r="G43" s="33"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="22">
-        <f t="shared" si="19"/>
-        <v>77311.543126139586</v>
-      </c>
-      <c r="K43" s="22">
+      <c r="H43" s="167"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="163">
+        <f t="shared" ref="J41:J63" si="19">K42*$I$7</f>
+        <v>104072.66437590009</v>
+      </c>
+      <c r="K43" s="163">
+        <f t="shared" si="14"/>
+        <v>1507299.5997812944</v>
+      </c>
+      <c r="L43" s="163">
+        <f t="shared" si="10"/>
+        <v>198858.82073969929</v>
+      </c>
+      <c r="M43" s="163">
+        <f t="shared" si="17"/>
+        <v>2880101.3475671057</v>
+      </c>
+      <c r="N43" s="168">
         <f t="shared" si="15"/>
-        <v>1034129.7903442961</v>
-      </c>
-      <c r="L43" s="22">
-        <f t="shared" si="11"/>
-        <v>147724.49987540318</v>
-      </c>
-      <c r="M43" s="22">
+        <v>58467.788975224765</v>
+      </c>
+      <c r="O43" s="91">
+        <f t="shared" si="18"/>
+        <v>111718.4386178086</v>
+      </c>
+      <c r="P43" s="164">
+        <f t="shared" si="6"/>
+        <v>1.6084372494752261</v>
+      </c>
+      <c r="Q43" s="155">
+        <f>M43/P43</f>
+        <v>1790620.8952240921</v>
+      </c>
+      <c r="R43" s="36">
         <f t="shared" si="16"/>
-        <v>1975983.1444007917</v>
-      </c>
-      <c r="N43" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O43" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>44047.0456578499</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
@@ -3985,45 +4040,51 @@
         <f t="shared" si="3"/>
         <v>2050</v>
       </c>
-      <c r="C44" s="22">
-        <f t="shared" si="8"/>
+      <c r="C44" s="163">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="22">
+      <c r="H44" s="167"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="163">
         <f t="shared" si="19"/>
-        <v>73630.041072513879</v>
-      </c>
-      <c r="K44" s="22">
+        <v>107319.73150442816</v>
+      </c>
+      <c r="K44" s="163">
+        <f t="shared" si="14"/>
+        <v>1554327.3472944708</v>
+      </c>
+      <c r="L44" s="163">
+        <f t="shared" si="10"/>
+        <v>205063.21594677793</v>
+      </c>
+      <c r="M44" s="163">
+        <f>M43 + L44-O44</f>
+        <v>2969960.5096111991</v>
+      </c>
+      <c r="N44" s="168">
         <f t="shared" si="15"/>
-        <v>982423.30082708132</v>
-      </c>
-      <c r="L44" s="22">
-        <f t="shared" si="11"/>
-        <v>140689.99988133638</v>
-      </c>
-      <c r="M44" s="22">
+        <v>60291.983991251778</v>
+      </c>
+      <c r="O44" s="91">
+        <f t="shared" si="18"/>
+        <v>115204.05390268423</v>
+      </c>
+      <c r="P44" s="164">
+        <f t="shared" si="6"/>
+        <v>1.6406059944647307</v>
+      </c>
+      <c r="Q44" s="155">
+        <f>M44/P44</f>
+        <v>1810282.6148579251</v>
+      </c>
+      <c r="R44" s="36">
         <f t="shared" si="16"/>
-        <v>1877183.9871807522</v>
-      </c>
-      <c r="N44" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O44" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>43657.548522082681</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
@@ -4031,45 +4092,51 @@
         <f t="shared" si="3"/>
         <v>2051</v>
       </c>
-      <c r="C45" s="22">
-        <f t="shared" si="8"/>
+      <c r="C45" s="163">
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="22">
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="163">
         <f t="shared" si="19"/>
-        <v>69948.539018888187</v>
-      </c>
-      <c r="K45" s="22">
+        <v>110668.10712736631</v>
+      </c>
+      <c r="K45" s="163">
+        <f t="shared" si="14"/>
+        <v>1602822.3605300584</v>
+      </c>
+      <c r="L45" s="163">
+        <f t="shared" si="10"/>
+        <v>211461.18828431738</v>
+      </c>
+      <c r="M45" s="163">
+        <f t="shared" si="17"/>
+        <v>3062623.2775110686</v>
+      </c>
+      <c r="N45" s="168">
         <f t="shared" si="15"/>
-        <v>930716.81130986649</v>
-      </c>
-      <c r="L45" s="22">
-        <f t="shared" si="11"/>
-        <v>133655.49988726954</v>
-      </c>
-      <c r="M45" s="22">
+        <v>62173.09389177883</v>
+      </c>
+      <c r="O45" s="91">
+        <f>M44*$E$10</f>
+        <v>118798.42038444796</v>
+      </c>
+      <c r="P45" s="164">
+        <f t="shared" si="6"/>
+        <v>1.6734181143540252</v>
+      </c>
+      <c r="Q45" s="155">
+        <f t="shared" ref="Q39:Q62" si="20">M45/P45</f>
+        <v>1830160.227883816</v>
+      </c>
+      <c r="R45" s="36">
         <f t="shared" si="16"/>
-        <v>1778384.8299607127</v>
-      </c>
-      <c r="N45" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O45" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>43271.495613198436</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
@@ -4077,789 +4144,892 @@
         <f t="shared" si="3"/>
         <v>2052</v>
       </c>
-      <c r="C46" s="22">
-        <f t="shared" si="8"/>
+      <c r="C46" s="163">
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
       <c r="G46" s="33"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="22">
-        <f t="shared" si="19"/>
-        <v>66267.036965262494</v>
-      </c>
-      <c r="K46" s="22">
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="163">
+        <f>K45*$I$7</f>
+        <v>114120.95206974016</v>
+      </c>
+      <c r="K46" s="163">
+        <f>K45+J46-N46</f>
+        <v>1652830.4181785963</v>
+      </c>
+      <c r="L46" s="163">
+        <f t="shared" si="10"/>
+        <v>218058.77735878809</v>
+      </c>
+      <c r="M46" s="163">
+        <f t="shared" si="17"/>
+        <v>3158177.1237694141</v>
+      </c>
+      <c r="N46" s="168">
         <f t="shared" si="15"/>
-        <v>879010.32179265167</v>
-      </c>
-      <c r="L46" s="22">
-        <f t="shared" si="11"/>
-        <v>126620.99989320274</v>
-      </c>
-      <c r="M46" s="22">
+        <v>64112.894421202334</v>
+      </c>
+      <c r="O46" s="91">
+        <f t="shared" si="18"/>
+        <v>122504.93110044274</v>
+      </c>
+      <c r="P46" s="164">
+        <f t="shared" si="6"/>
+        <v>1.7068864766411058</v>
+      </c>
+      <c r="Q46" s="155">
+        <f t="shared" si="20"/>
+        <v>1850256.1048958737</v>
+      </c>
+      <c r="R46" s="36">
         <f t="shared" si="16"/>
-        <v>1679585.6727406732</v>
-      </c>
-      <c r="N46" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O46" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>42888.856474750311</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="31">
-        <f t="shared" ref="B47:B63" si="20">B46+1</f>
+        <f t="shared" ref="B47:B63" si="21">B46+1</f>
         <v>2053</v>
       </c>
-      <c r="C47" s="22">
-        <f t="shared" ref="C47:C63" si="21">C46+1</f>
+      <c r="C47" s="163">
+        <f t="shared" ref="C47:C63" si="22">C46+1</f>
         <v>74</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="167"/>
+      <c r="F47" s="167"/>
       <c r="G47" s="33"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="22">
-        <f t="shared" si="19"/>
-        <v>62585.534911636802</v>
-      </c>
-      <c r="K47" s="22">
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="163">
+        <f>K46*$I$7</f>
+        <v>117681.52577431606</v>
+      </c>
+      <c r="K47" s="163">
+        <f t="shared" si="14"/>
+        <v>1704398.7272257686</v>
+      </c>
+      <c r="L47" s="163">
+        <f t="shared" si="10"/>
+        <v>224862.21121238227</v>
+      </c>
+      <c r="M47" s="163">
+        <f t="shared" si="17"/>
+        <v>3256712.2500310196</v>
+      </c>
+      <c r="N47" s="168">
         <f t="shared" si="15"/>
-        <v>827303.83227543684</v>
-      </c>
-      <c r="L47" s="22">
-        <f t="shared" si="11"/>
-        <v>119586.49989913593</v>
-      </c>
-      <c r="M47" s="22">
+        <v>66113.216727143852</v>
+      </c>
+      <c r="O47" s="91">
+        <f t="shared" si="18"/>
+        <v>126327.08495077657</v>
+      </c>
+      <c r="P47" s="164">
+        <f t="shared" si="6"/>
+        <v>1.7410242061739281</v>
+      </c>
+      <c r="Q47" s="155">
+        <f>M47/P47</f>
+        <v>1870572.6425182594</v>
+      </c>
+      <c r="R47" s="36">
         <f t="shared" si="16"/>
-        <v>1580786.5155206337</v>
-      </c>
-      <c r="N47" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O47" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>42509.600919610268</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="31">
+        <f t="shared" si="21"/>
+        <v>2054</v>
+      </c>
+      <c r="C48" s="163">
+        <f t="shared" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="D48" s="167"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="163">
+        <f t="shared" si="19"/>
+        <v>121353.18937847472</v>
+      </c>
+      <c r="K48" s="163">
+        <f t="shared" si="14"/>
+        <v>1757575.9675152125</v>
+      </c>
+      <c r="L48" s="163">
+        <f t="shared" si="10"/>
+        <v>231877.91220220859</v>
+      </c>
+      <c r="M48" s="163">
+        <f t="shared" si="17"/>
+        <v>3358321.6722319876</v>
+      </c>
+      <c r="N48" s="168">
+        <f t="shared" si="15"/>
+        <v>68175.94908903075</v>
+      </c>
+      <c r="O48" s="91">
+        <f t="shared" si="18"/>
+        <v>130268.49000124079</v>
+      </c>
+      <c r="P48" s="164">
+        <f t="shared" si="6"/>
+        <v>1.7758446902974065</v>
+      </c>
+      <c r="Q48" s="155">
         <f t="shared" si="20"/>
-        <v>2054</v>
-      </c>
-      <c r="C48" s="22">
-        <f t="shared" si="21"/>
-        <v>75</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="22">
-        <f t="shared" si="19"/>
-        <v>58904.032858011102</v>
-      </c>
-      <c r="K48" s="22">
-        <f t="shared" si="15"/>
-        <v>775597.34275822202</v>
-      </c>
-      <c r="L48" s="22">
-        <f t="shared" si="11"/>
-        <v>112551.99990506911</v>
-      </c>
-      <c r="M48" s="22">
+        <v>1891112.2636910093</v>
+      </c>
+      <c r="R48" s="36">
         <f t="shared" si="16"/>
-        <v>1481987.3583005941</v>
-      </c>
-      <c r="N48" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O48" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>42133.699027587565</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="31">
+        <f t="shared" si="21"/>
+        <v>2055</v>
+      </c>
+      <c r="C49" s="163">
+        <f t="shared" si="22"/>
+        <v>76</v>
+      </c>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="163">
+        <f>K48*$I$7</f>
+        <v>125139.40888708313</v>
+      </c>
+      <c r="K49" s="163">
+        <f t="shared" si="14"/>
+        <v>1812412.3377016871</v>
+      </c>
+      <c r="L49" s="163">
+        <f t="shared" si="10"/>
+        <v>239112.5030629175</v>
+      </c>
+      <c r="M49" s="163">
+        <f t="shared" si="17"/>
+        <v>3463101.3084056256</v>
+      </c>
+      <c r="N49" s="168">
+        <f t="shared" si="15"/>
+        <v>70303.038700608507</v>
+      </c>
+      <c r="O49" s="91">
+        <f t="shared" si="18"/>
+        <v>134332.86688927951</v>
+      </c>
+      <c r="P49" s="164">
+        <f t="shared" si="6"/>
+        <v>1.8113615841033548</v>
+      </c>
+      <c r="Q49" s="155">
         <f t="shared" si="20"/>
-        <v>2055</v>
-      </c>
-      <c r="C49" s="22">
-        <f t="shared" si="21"/>
-        <v>76</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="22">
-        <f t="shared" si="19"/>
-        <v>55222.530804385409</v>
-      </c>
-      <c r="K49" s="22">
-        <f t="shared" si="15"/>
-        <v>723890.85324100719</v>
-      </c>
-      <c r="L49" s="22">
-        <f t="shared" si="11"/>
-        <v>105517.49991100231</v>
-      </c>
-      <c r="M49" s="22">
+        <v>1911877.4179589888</v>
+      </c>
+      <c r="R49" s="36">
         <f t="shared" si="16"/>
-        <v>1383188.2010805546</v>
-      </c>
-      <c r="N49" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O49" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>41761.12114306834</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="31">
+        <f t="shared" si="21"/>
+        <v>2056</v>
+      </c>
+      <c r="C50" s="163">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="163">
+        <f t="shared" si="19"/>
+        <v>129043.75844436012</v>
+      </c>
+      <c r="K50" s="163">
+        <f t="shared" si="14"/>
+        <v>1868959.6026379799</v>
+      </c>
+      <c r="L50" s="163">
+        <f t="shared" si="10"/>
+        <v>246572.81315848054</v>
+      </c>
+      <c r="M50" s="163">
+        <f t="shared" si="17"/>
+        <v>3571150.0692278813</v>
+      </c>
+      <c r="N50" s="168">
+        <f t="shared" si="15"/>
+        <v>72496.493508067491</v>
+      </c>
+      <c r="O50" s="91">
+        <f t="shared" si="18"/>
+        <v>138524.05233622502</v>
+      </c>
+      <c r="P50" s="164">
+        <f t="shared" si="6"/>
+        <v>1.8475888157854219</v>
+      </c>
+      <c r="Q50" s="155">
         <f t="shared" si="20"/>
-        <v>2056</v>
-      </c>
-      <c r="C50" s="22">
-        <f t="shared" si="21"/>
-        <v>77</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="22">
-        <f t="shared" si="19"/>
-        <v>51541.02875075971</v>
-      </c>
-      <c r="K50" s="22">
-        <f t="shared" si="15"/>
-        <v>672184.36372379237</v>
-      </c>
-      <c r="L50" s="22">
-        <f t="shared" si="11"/>
-        <v>98482.999916935485</v>
-      </c>
-      <c r="M50" s="22">
+        <v>1932870.5817640286</v>
+      </c>
+      <c r="R50" s="36">
         <f t="shared" si="16"/>
-        <v>1284389.0438605151</v>
-      </c>
-      <c r="N50" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O50" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>41391.837872675955</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2057</v>
       </c>
-      <c r="C51" s="22">
-        <f t="shared" si="21"/>
+      <c r="C51" s="163">
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
       <c r="G51" s="33"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="22">
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="163">
         <f t="shared" si="19"/>
-        <v>47859.526697134017</v>
-      </c>
-      <c r="K51" s="22">
+        <v>133069.92370782417</v>
+      </c>
+      <c r="K51" s="163">
+        <f t="shared" si="14"/>
+        <v>1927271.1422402849</v>
+      </c>
+      <c r="L51" s="163">
+        <f t="shared" si="10"/>
+        <v>254265.88492902514</v>
+      </c>
+      <c r="M51" s="163">
+        <f t="shared" si="17"/>
+        <v>3682569.951387791</v>
+      </c>
+      <c r="N51" s="168">
         <f t="shared" si="15"/>
-        <v>620477.87420657754</v>
-      </c>
-      <c r="L51" s="22">
-        <f t="shared" si="11"/>
-        <v>91448.499922868679</v>
-      </c>
-      <c r="M51" s="22">
+        <v>74758.384105519202</v>
+      </c>
+      <c r="O51" s="91">
+        <f t="shared" si="18"/>
+        <v>142846.00276911526</v>
+      </c>
+      <c r="P51" s="164">
+        <f t="shared" si="6"/>
+        <v>1.8845405921011305</v>
+      </c>
+      <c r="Q51" s="155">
+        <f>M51/P51</f>
+        <v>1954094.258740261</v>
+      </c>
+      <c r="R51" s="36">
         <f t="shared" si="16"/>
-        <v>1185589.8866404756</v>
-      </c>
-      <c r="N51" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O51" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>41025.820082952174</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="31">
+        <f t="shared" si="21"/>
+        <v>2058</v>
+      </c>
+      <c r="C52" s="163">
+        <f t="shared" si="22"/>
+        <v>79</v>
+      </c>
+      <c r="D52" s="167"/>
+      <c r="E52" s="167"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="167"/>
+      <c r="I52" s="167"/>
+      <c r="J52" s="163">
+        <f t="shared" si="19"/>
+        <v>137221.70532750827</v>
+      </c>
+      <c r="K52" s="163">
+        <f t="shared" si="14"/>
+        <v>1987402.0018781819</v>
+      </c>
+      <c r="L52" s="163">
+        <f t="shared" si="10"/>
+        <v>262198.98053881072</v>
+      </c>
+      <c r="M52" s="163">
+        <f t="shared" si="17"/>
+        <v>3797466.1338710901</v>
+      </c>
+      <c r="N52" s="168">
+        <f t="shared" si="15"/>
+        <v>77090.845689611393</v>
+      </c>
+      <c r="O52" s="91">
+        <f t="shared" si="18"/>
+        <v>147302.79805551164</v>
+      </c>
+      <c r="P52" s="164">
+        <f t="shared" si="6"/>
+        <v>1.9222314039431532</v>
+      </c>
+      <c r="Q52" s="155">
         <f t="shared" si="20"/>
-        <v>2058</v>
-      </c>
-      <c r="C52" s="22">
-        <f t="shared" si="21"/>
-        <v>79</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="22">
-        <f t="shared" si="19"/>
-        <v>44178.024643508317</v>
-      </c>
-      <c r="K52" s="22">
-        <f t="shared" si="15"/>
-        <v>568771.38468936272</v>
-      </c>
-      <c r="L52" s="22">
-        <f t="shared" si="11"/>
-        <v>84413.999928801859</v>
-      </c>
-      <c r="M52" s="22">
+        <v>1975550.980012703</v>
+      </c>
+      <c r="R52" s="36">
         <f t="shared" si="16"/>
-        <v>1086790.7294204361</v>
-      </c>
-      <c r="N52" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O52" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>40663.038898058709</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="31">
+        <f t="shared" si="21"/>
+        <v>2059</v>
+      </c>
+      <c r="C53" s="163">
+        <f t="shared" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="167"/>
+      <c r="J53" s="163">
+        <f t="shared" si="19"/>
+        <v>141503.02253372656</v>
+      </c>
+      <c r="K53" s="163">
+        <f t="shared" si="14"/>
+        <v>2049408.944336781</v>
+      </c>
+      <c r="L53" s="163">
+        <f t="shared" si="10"/>
+        <v>270379.58873162162</v>
+      </c>
+      <c r="M53" s="163">
+        <f t="shared" si="17"/>
+        <v>3915947.0772478683</v>
+      </c>
+      <c r="N53" s="168">
+        <f t="shared" si="15"/>
+        <v>79496.080075127276</v>
+      </c>
+      <c r="O53" s="91">
+        <f t="shared" si="18"/>
+        <v>151898.64535484361</v>
+      </c>
+      <c r="P53" s="164">
+        <f t="shared" si="6"/>
+        <v>1.9606760320220162</v>
+      </c>
+      <c r="Q53" s="155">
         <f t="shared" si="20"/>
-        <v>2059</v>
-      </c>
-      <c r="C53" s="22">
-        <f t="shared" si="21"/>
-        <v>80</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="22">
-        <f t="shared" si="19"/>
-        <v>40496.522589882625</v>
-      </c>
-      <c r="K53" s="22">
-        <f t="shared" si="15"/>
-        <v>517064.8951721479</v>
-      </c>
-      <c r="L53" s="22">
-        <f t="shared" si="11"/>
-        <v>77379.499934735053</v>
-      </c>
-      <c r="M53" s="22">
+        <v>1997243.304499117</v>
+      </c>
+      <c r="R53" s="36">
         <f t="shared" si="16"/>
-        <v>987991.57220039656</v>
-      </c>
-      <c r="N53" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O53" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>40303.465697499174</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="31">
+        <f t="shared" si="21"/>
+        <v>2060</v>
+      </c>
+      <c r="C54" s="163">
+        <f t="shared" si="22"/>
+        <v>81</v>
+      </c>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="163">
+        <f t="shared" si="19"/>
+        <v>145917.91683677881</v>
+      </c>
+      <c r="K54" s="163">
+        <f t="shared" si="14"/>
+        <v>2113350.5034000888</v>
+      </c>
+      <c r="L54" s="163">
+        <f t="shared" si="10"/>
+        <v>278815.43190004822</v>
+      </c>
+      <c r="M54" s="163">
+        <f t="shared" si="17"/>
+        <v>4038124.626058002</v>
+      </c>
+      <c r="N54" s="168">
+        <f t="shared" si="15"/>
+        <v>81976.357773471245</v>
+      </c>
+      <c r="O54" s="91">
+        <f t="shared" si="18"/>
+        <v>156637.88308991474</v>
+      </c>
+      <c r="P54" s="164">
+        <f t="shared" si="6"/>
+        <v>1.9998895526624565</v>
+      </c>
+      <c r="Q54" s="155">
         <f t="shared" si="20"/>
-        <v>2060</v>
-      </c>
-      <c r="C54" s="22">
-        <f t="shared" si="21"/>
-        <v>81</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="22">
-        <f t="shared" si="19"/>
-        <v>36815.020536256932</v>
-      </c>
-      <c r="K54" s="22">
-        <f t="shared" si="15"/>
-        <v>465358.40565493307</v>
-      </c>
-      <c r="L54" s="22">
-        <f t="shared" si="11"/>
-        <v>70344.999940668233</v>
-      </c>
-      <c r="M54" s="22">
+        <v>2019173.8192151859</v>
+      </c>
+      <c r="R54" s="36">
         <f t="shared" si="16"/>
-        <v>889192.41498035705</v>
-      </c>
-      <c r="N54" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O54" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="99"/>
-      <c r="R54" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>39947.072113861155</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="31">
+        <f t="shared" si="21"/>
+        <v>2061</v>
+      </c>
+      <c r="C55" s="163">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="163">
+        <f t="shared" si="19"/>
+        <v>150470.55584208632</v>
+      </c>
+      <c r="K55" s="163">
+        <f t="shared" si="14"/>
+        <v>2179287.0391061716</v>
+      </c>
+      <c r="L55" s="163">
+        <f t="shared" si="10"/>
+        <v>287514.47337532975</v>
+      </c>
+      <c r="M55" s="163">
+        <f t="shared" si="17"/>
+        <v>4164114.1143910117</v>
+      </c>
+      <c r="N55" s="168">
+        <f t="shared" si="15"/>
+        <v>84534.020136003557</v>
+      </c>
+      <c r="O55" s="91">
+        <f t="shared" si="18"/>
+        <v>161524.98504232007</v>
+      </c>
+      <c r="P55" s="164">
+        <f t="shared" si="6"/>
+        <v>2.0398873437157055</v>
+      </c>
+      <c r="Q55" s="155">
         <f t="shared" si="20"/>
-        <v>2061</v>
-      </c>
-      <c r="C55" s="22">
-        <f t="shared" si="21"/>
-        <v>82</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="22">
-        <f t="shared" si="19"/>
-        <v>33133.518482631232</v>
-      </c>
-      <c r="K55" s="22">
-        <f t="shared" si="15"/>
-        <v>413651.91613771825</v>
-      </c>
-      <c r="L55" s="22">
-        <f t="shared" si="11"/>
-        <v>63310.49994660142</v>
-      </c>
-      <c r="M55" s="22">
+        <v>2041345.1395830391</v>
+      </c>
+      <c r="R55" s="36">
         <f t="shared" si="16"/>
-        <v>790393.25776031753</v>
-      </c>
-      <c r="N55" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O55" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>39593.830030578276</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="31">
+        <f t="shared" si="21"/>
+        <v>2062</v>
+      </c>
+      <c r="C56" s="163">
+        <f t="shared" si="22"/>
+        <v>83</v>
+      </c>
+      <c r="D56" s="167"/>
+      <c r="E56" s="167"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="167"/>
+      <c r="I56" s="167"/>
+      <c r="J56" s="163">
+        <f t="shared" si="19"/>
+        <v>155165.2371843594</v>
+      </c>
+      <c r="K56" s="163">
+        <f t="shared" si="14"/>
+        <v>2247280.7947262838</v>
+      </c>
+      <c r="L56" s="163">
+        <f t="shared" si="10"/>
+        <v>296484.92494464002</v>
+      </c>
+      <c r="M56" s="163">
+        <f t="shared" si="17"/>
+        <v>4294034.4747600108</v>
+      </c>
+      <c r="N56" s="168">
+        <f t="shared" si="15"/>
+        <v>87171.48156424686</v>
+      </c>
+      <c r="O56" s="91">
+        <f t="shared" si="18"/>
+        <v>166564.56457564046</v>
+      </c>
+      <c r="P56" s="164">
+        <f t="shared" si="6"/>
+        <v>2.0806850905900198</v>
+      </c>
+      <c r="Q56" s="155">
         <f t="shared" si="20"/>
-        <v>2062</v>
-      </c>
-      <c r="C56" s="22">
-        <f t="shared" si="21"/>
-        <v>83</v>
-      </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="22">
-        <f t="shared" si="19"/>
-        <v>29452.01642900554</v>
-      </c>
-      <c r="K56" s="22">
-        <f t="shared" si="15"/>
-        <v>361945.42662050342</v>
-      </c>
-      <c r="L56" s="22">
-        <f t="shared" si="11"/>
-        <v>56275.999952534607</v>
-      </c>
-      <c r="M56" s="22">
+        <v>2063759.9097431661</v>
+      </c>
+      <c r="R56" s="36">
         <f t="shared" si="16"/>
-        <v>691594.10054027801</v>
-      </c>
-      <c r="N56" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O56" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="99"/>
-      <c r="R56" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>39243.711579711948</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="31">
+        <f t="shared" si="21"/>
+        <v>2063</v>
+      </c>
+      <c r="C57" s="163">
+        <f t="shared" si="22"/>
+        <v>84</v>
+      </c>
+      <c r="D57" s="167"/>
+      <c r="E57" s="167"/>
+      <c r="F57" s="167"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="163">
+        <f>K56*$I$7</f>
+        <v>160006.3925845114</v>
+      </c>
+      <c r="K57" s="163">
+        <f t="shared" si="14"/>
+        <v>2317395.9555217437</v>
+      </c>
+      <c r="L57" s="163">
+        <f t="shared" si="10"/>
+        <v>305735.25460291276</v>
+      </c>
+      <c r="M57" s="163">
+        <f t="shared" si="17"/>
+        <v>4428008.3503725231</v>
+      </c>
+      <c r="N57" s="168">
+        <f t="shared" si="15"/>
+        <v>89891.231789051351</v>
+      </c>
+      <c r="O57" s="91">
+        <f t="shared" si="18"/>
+        <v>171761.37899040044</v>
+      </c>
+      <c r="P57" s="164">
+        <f t="shared" si="6"/>
+        <v>2.1222987924018204</v>
+      </c>
+      <c r="Q57" s="155">
         <f t="shared" si="20"/>
-        <v>2063</v>
-      </c>
-      <c r="C57" s="22">
-        <f t="shared" si="21"/>
-        <v>84</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="22">
-        <f t="shared" si="19"/>
-        <v>25770.514375379844</v>
-      </c>
-      <c r="K57" s="22">
-        <f t="shared" si="15"/>
-        <v>310238.9371032886</v>
-      </c>
-      <c r="L57" s="22">
-        <f t="shared" si="11"/>
-        <v>49241.499958467793</v>
-      </c>
-      <c r="M57" s="22">
+        <v>2086420.8028697576</v>
+      </c>
+      <c r="R57" s="36">
         <f t="shared" si="16"/>
-        <v>592794.9433202385</v>
-      </c>
-      <c r="N57" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O57" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>38896.689139752933</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="31">
+        <f t="shared" si="21"/>
+        <v>2064</v>
+      </c>
+      <c r="C58" s="163">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
+      <c r="D58" s="167"/>
+      <c r="E58" s="167"/>
+      <c r="F58" s="167"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="167"/>
+      <c r="I58" s="167"/>
+      <c r="J58" s="163">
+        <f t="shared" si="19"/>
+        <v>164998.59203314816</v>
+      </c>
+      <c r="K58" s="163">
+        <f t="shared" si="14"/>
+        <v>2389698.7093340224</v>
+      </c>
+      <c r="L58" s="163">
+        <f t="shared" si="10"/>
+        <v>315274.19454652362</v>
+      </c>
+      <c r="M58" s="163">
+        <f t="shared" si="17"/>
+        <v>4566162.2109041456</v>
+      </c>
+      <c r="N58" s="168">
+        <f t="shared" si="15"/>
+        <v>92695.838220869759</v>
+      </c>
+      <c r="O58" s="91">
+        <f t="shared" si="18"/>
+        <v>177120.33401490093</v>
+      </c>
+      <c r="P58" s="164">
+        <f t="shared" si="6"/>
+        <v>2.1647447682498568</v>
+      </c>
+      <c r="Q58" s="155">
         <f t="shared" si="20"/>
-        <v>2064</v>
-      </c>
-      <c r="C58" s="22">
-        <f t="shared" si="21"/>
-        <v>85</v>
-      </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="22">
-        <f t="shared" si="19"/>
-        <v>22089.012321754148</v>
-      </c>
-      <c r="K58" s="22">
-        <f t="shared" si="15"/>
-        <v>258532.44758607377</v>
-      </c>
-      <c r="L58" s="22">
-        <f t="shared" si="11"/>
-        <v>42206.99996440098</v>
-      </c>
-      <c r="M58" s="22">
+        <v>2109330.5214895038</v>
+      </c>
+      <c r="R58" s="36">
         <f t="shared" si="16"/>
-        <v>493995.78610019892</v>
-      </c>
-      <c r="N58" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O58" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="99"/>
-      <c r="R58" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>38552.735333442157</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="31">
+        <f t="shared" si="21"/>
+        <v>2065</v>
+      </c>
+      <c r="C59" s="163">
+        <f t="shared" si="22"/>
+        <v>86</v>
+      </c>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="163">
+        <f t="shared" si="19"/>
+        <v>170146.54810458238</v>
+      </c>
+      <c r="K59" s="163">
+        <f t="shared" si="14"/>
+        <v>2464257.3090652437</v>
+      </c>
+      <c r="L59" s="163">
+        <f t="shared" si="10"/>
+        <v>325110.74941637518</v>
+      </c>
+      <c r="M59" s="163">
+        <f t="shared" si="17"/>
+        <v>4708626.4718843549</v>
+      </c>
+      <c r="N59" s="168">
+        <f t="shared" si="15"/>
+        <v>95587.948373360894</v>
+      </c>
+      <c r="O59" s="91">
+        <f t="shared" si="18"/>
+        <v>182646.48843616582</v>
+      </c>
+      <c r="P59" s="164">
+        <f t="shared" si="6"/>
+        <v>2.208039663614854</v>
+      </c>
+      <c r="Q59" s="155">
         <f t="shared" si="20"/>
-        <v>2065</v>
-      </c>
-      <c r="C59" s="22">
-        <f t="shared" si="21"/>
-        <v>86</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="22">
-        <f t="shared" si="19"/>
-        <v>18407.510268128452</v>
-      </c>
-      <c r="K59" s="22">
-        <f t="shared" si="15"/>
-        <v>206825.95806885895</v>
-      </c>
-      <c r="L59" s="22">
-        <f t="shared" si="11"/>
-        <v>35172.49997033416</v>
-      </c>
-      <c r="M59" s="22">
+        <v>2132491.7978038983</v>
+      </c>
+      <c r="R59" s="36">
         <f t="shared" si="16"/>
-        <v>395196.62888015935</v>
-      </c>
-      <c r="N59" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O59" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="99"/>
-      <c r="R59" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>38211.823025610865</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="31">
+        <f t="shared" si="21"/>
+        <v>2066</v>
+      </c>
+      <c r="C60" s="163">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="163">
+        <f t="shared" si="19"/>
+        <v>175455.12040544534</v>
+      </c>
+      <c r="K60" s="163">
+        <f t="shared" si="14"/>
+        <v>2541142.1371080792</v>
+      </c>
+      <c r="L60" s="163">
+        <f t="shared" si="10"/>
+        <v>335254.20479816606</v>
+      </c>
+      <c r="M60" s="163">
+        <f t="shared" si="17"/>
+        <v>4855535.6178071462</v>
+      </c>
+      <c r="N60" s="168">
+        <f t="shared" si="15"/>
+        <v>98570.292362609747</v>
+      </c>
+      <c r="O60" s="91">
+        <f t="shared" si="18"/>
+        <v>188345.0588753742</v>
+      </c>
+      <c r="P60" s="164">
+        <f t="shared" si="6"/>
+        <v>2.252200456887151</v>
+      </c>
+      <c r="Q60" s="155">
         <f t="shared" si="20"/>
-        <v>2066</v>
-      </c>
-      <c r="C60" s="22">
-        <f t="shared" si="21"/>
-        <v>87</v>
-      </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="22">
-        <f t="shared" si="19"/>
-        <v>14726.008214502757</v>
-      </c>
-      <c r="K60" s="22">
-        <f t="shared" si="15"/>
-        <v>155119.46855164412</v>
-      </c>
-      <c r="L60" s="22">
-        <f t="shared" si="11"/>
-        <v>28137.999976267347</v>
-      </c>
-      <c r="M60" s="22">
+        <v>2155907.3940150784</v>
+      </c>
+      <c r="R60" s="36">
         <f t="shared" si="16"/>
-        <v>296397.47166011977</v>
-      </c>
-      <c r="N60" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O60" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>37873.925321039911</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="31">
+        <f t="shared" si="21"/>
+        <v>2067</v>
+      </c>
+      <c r="C61" s="163">
+        <f t="shared" si="22"/>
+        <v>88</v>
+      </c>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="163">
+        <f t="shared" si="19"/>
+        <v>180929.32016209525</v>
+      </c>
+      <c r="K61" s="163">
+        <f t="shared" si="14"/>
+        <v>2620425.7717858511</v>
+      </c>
+      <c r="L61" s="163">
+        <f t="shared" si="10"/>
+        <v>345714.13598786882</v>
+      </c>
+      <c r="M61" s="163">
+        <f t="shared" si="17"/>
+        <v>5007028.3290827293</v>
+      </c>
+      <c r="N61" s="168">
+        <f t="shared" si="15"/>
+        <v>101645.68548432317</v>
+      </c>
+      <c r="O61" s="91">
+        <f t="shared" si="18"/>
+        <v>194221.42471228584</v>
+      </c>
+      <c r="P61" s="164">
+        <f>P60*(1+$I$15)</f>
+        <v>2.2972444660248938</v>
+      </c>
+      <c r="Q61" s="155">
         <f t="shared" si="20"/>
-        <v>2067</v>
-      </c>
-      <c r="C61" s="22">
-        <f t="shared" si="21"/>
-        <v>88</v>
-      </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="22">
-        <f t="shared" si="19"/>
-        <v>11044.506160877061</v>
-      </c>
-      <c r="K61" s="22">
-        <f t="shared" si="15"/>
-        <v>103412.9790344293</v>
-      </c>
-      <c r="L61" s="22">
-        <f t="shared" si="11"/>
-        <v>21103.499982200527</v>
-      </c>
-      <c r="M61" s="22">
+        <v>2179580.1026552441</v>
+      </c>
+      <c r="R61" s="36">
         <f t="shared" si="16"/>
-        <v>197598.3144400802</v>
-      </c>
-      <c r="N61" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O61" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>37539.015562337911</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2068</v>
       </c>
-      <c r="C62" s="22">
-        <f t="shared" si="21"/>
+      <c r="C62" s="163">
+        <f t="shared" si="22"/>
         <v>89</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
       <c r="G62" s="33"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="22">
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
+      <c r="J62" s="163">
         <f t="shared" si="19"/>
-        <v>7363.0041072513659</v>
-      </c>
-      <c r="K62" s="22">
+        <v>186574.3149511526</v>
+      </c>
+      <c r="K62" s="163">
+        <f t="shared" si="14"/>
+        <v>2702183.0558655695</v>
+      </c>
+      <c r="L62" s="163">
+        <f t="shared" si="10"/>
+        <v>356500.4170306903</v>
+      </c>
+      <c r="M62" s="163">
+        <f t="shared" si="17"/>
+        <v>5163247.6129501108</v>
+      </c>
+      <c r="N62" s="168">
         <f t="shared" si="15"/>
-        <v>51706.489517214468</v>
-      </c>
-      <c r="L62" s="22">
-        <f t="shared" si="11"/>
-        <v>14068.99998813371</v>
-      </c>
-      <c r="M62" s="22">
-        <f t="shared" si="16"/>
-        <v>98799.157220040623</v>
-      </c>
-      <c r="N62" s="39">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O62" s="99">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="99"/>
+        <v>104817.03087143405</v>
+      </c>
+      <c r="O62" s="91">
+        <f t="shared" si="18"/>
+        <v>200281.13316330919</v>
+      </c>
+      <c r="P62" s="164">
+        <f>P61*(1+$I$15)</f>
+        <v>2.343189355345392</v>
+      </c>
+      <c r="Q62" s="155">
+        <f>M62/P62</f>
+        <v>2203512.7469196934</v>
+      </c>
       <c r="R62" s="36">
-        <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <f>(Q61*0.04) / P62</f>
+        <v>37207.067327838195</v>
       </c>
     </row>
     <row r="63" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2069</v>
       </c>
       <c r="C63" s="37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="D63" s="34"/>
@@ -4870,33 +5040,39 @@
       <c r="I63" s="34"/>
       <c r="J63" s="37">
         <f t="shared" si="19"/>
-        <v>3681.5020536256702</v>
+        <v>192395.43357762854</v>
       </c>
       <c r="K63" s="37">
+        <f t="shared" si="14"/>
+        <v>2786491.1672085752</v>
+      </c>
+      <c r="L63" s="37">
+        <f t="shared" si="10"/>
+        <v>367623.23004204792</v>
+      </c>
+      <c r="M63" s="37">
+        <f xml:space="preserve"> M62+L62-O63</f>
+        <v>5313218.1254627965</v>
+      </c>
+      <c r="N63" s="168">
         <f t="shared" si="15"/>
-        <v>-3.637978807091713E-10</v>
-      </c>
-      <c r="L63" s="37">
-        <f t="shared" si="11"/>
-        <v>7034.4999940668922</v>
-      </c>
-      <c r="M63" s="37">
-        <f t="shared" si="16"/>
-        <v>1.0477378964424133E-9</v>
-      </c>
-      <c r="N63" s="75">
-        <f t="shared" si="17"/>
-        <v>51706.489517214832</v>
-      </c>
-      <c r="O63" s="100">
-        <f t="shared" si="14"/>
-        <v>98799.157220039575</v>
-      </c>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="100"/>
-      <c r="R63" s="76">
+        <v>108087.32223462278</v>
+      </c>
+      <c r="O63" s="91">
         <f t="shared" si="18"/>
-        <v>67818.780555209043</v>
+        <v>206529.90451800445</v>
+      </c>
+      <c r="P63" s="154">
+        <f>P62*(1+$I$15)</f>
+        <v>2.3900531424522997</v>
+      </c>
+      <c r="Q63" s="92">
+        <f>M63/P63</f>
+        <v>2223054.3878246997</v>
+      </c>
+      <c r="R63" s="69">
+        <f>(Q62*0.04) / P63</f>
+        <v>36878.054429514355</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
@@ -21727,7 +21903,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="K21:K63" formula="1"/>
+    <ignoredError sqref="K21:K36 K37:K38 K40:K63" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21750,10 +21926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="101" t="s">
         <v>54</v>
       </c>
     </row>
@@ -21767,12 +21943,12 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
     </row>
     <row r="3" spans="1:15" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
@@ -21807,26 +21983,26 @@
       <c r="B6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="105"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="106"/>
+      <c r="E6" s="98"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="105"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="107"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="105"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="108"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="105"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="108"/>
+      <c r="E9" s="100"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="50"/>
